--- a/PatientCare360/Excel/Patients.xlsx
+++ b/PatientCare360/Excel/Patients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dori6\source\repos\PatientCare360\PatientCare360\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D554772-1A83-45C3-9D94-B5A3FD9BE574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53987990-39A7-44C0-BFA0-70A99E9DA41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23730" yWindow="3570" windowWidth="17280" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25770" yWindow="3405" windowWidth="13830" windowHeight="6990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>First name</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Diagnosis</t>
   </si>
   <si>
-    <t>Recommendation</t>
-  </si>
-  <si>
     <t>Smokes</t>
   </si>
   <si>
@@ -91,6 +88,54 @@
   </si>
   <si>
     <t>Pregnant</t>
+  </si>
+  <si>
+    <t>Moshe</t>
+  </si>
+  <si>
+    <t>Davidian</t>
+  </si>
+  <si>
+    <t>316055656</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>The tests are normal and you are a healthy person.</t>
   </si>
 </sst>
 </file>
@@ -423,9 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -450,19 +497,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -500,8 +547,71 @@
       <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>16</v>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/PatientCare360/Excel/Patients.xlsx
+++ b/PatientCare360/Excel/Patients.xlsx
@@ -1,148 +1,148 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dori6\source\repos\PatientCare360\PatientCare360\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53987990-39A7-44C0-BFA0-70A99E9DA41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr autoCompressPictures="1"/>
   <bookViews>
-    <workbookView xWindow="-25770" yWindow="3405" windowWidth="13830" windowHeight="6990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25770" yWindow="3405" windowWidth="13830" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="162913" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
-  <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>Last name</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>WBC</t>
-  </si>
-  <si>
-    <t>Neut</t>
-  </si>
-  <si>
-    <t>Lymph</t>
-  </si>
-  <si>
-    <t>RBC</t>
-  </si>
-  <si>
-    <t>HCT</t>
-  </si>
-  <si>
-    <t>Urea</t>
-  </si>
-  <si>
-    <t>Hb</t>
-  </si>
-  <si>
-    <t>Crtn</t>
-  </si>
-  <si>
-    <t>Iron</t>
-  </si>
-  <si>
-    <t>HDL</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>Diagnosis</t>
-  </si>
-  <si>
-    <t>Smokes</t>
-  </si>
-  <si>
-    <t>Fever</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+  <si>
+    <t xml:space="preserve">First name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crtn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smokes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fever</t>
   </si>
   <si>
     <t xml:space="preserve"> Diarrhea</t>
   </si>
   <si>
-    <t>Vomiting</t>
-  </si>
-  <si>
-    <t>Pregnant</t>
-  </si>
-  <si>
-    <t>Moshe</t>
-  </si>
-  <si>
-    <t>Davidian</t>
-  </si>
-  <si>
-    <t>316055656</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>The tests are normal and you are a healthy person.</t>
+    <t xml:space="preserve">Vomiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregnant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moshe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davidian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">316055656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The tests are normal and you are a healthy person.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,28 +181,33 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,14 +472,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
@@ -483,7 +488,7 @@
     <col min="22" max="22" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +554,7 @@
       </c>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -611,10 +616,79 @@
         <v>34</v>
       </c>
       <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="default" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PatientCare360/Excel/Patients.xlsx
+++ b/PatientCare360/Excel/Patients.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t xml:space="preserve">First name</t>
   </si>
@@ -136,6 +136,49 @@
   </si>
   <si>
     <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">315783522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnoses Bleeding
+Treatment: To reach to the nearest hospital as soon as possible
+Diagnoses Malnutrition
+Treatment: Ask for an appointment of a nutritionist
+ In addition there are concerns:
+Diagnoses Anemia
+Treatment: Required to take two pills 10 mg each of B12 a day for a month
+Diagnoses Disorder of blood formation / blood cells
+Treatment: Required to take two pills of 10 mg of B12 a day for a month  and required to a 5 mg pill of a folic acid a day for a month
+Diagnoses Vitamin deficiency
+Treatment: required an invitation for blood test and vitamin test
+Diagnoses Iron deficiency
+Treatment: Required to take two pills of 10 mg of B12 a day for a month
+</t>
   </si>
 </sst>
 </file>
@@ -684,6 +727,72 @@
       <c r="U3" t="s">
         <v>36</v>
       </c>
+      <c r="V3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PatientCare360/Excel/Patients.xlsx
+++ b/PatientCare360/Excel/Patients.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
   <si>
     <t xml:space="preserve">First name</t>
   </si>
@@ -179,6 +179,9 @@
 Diagnoses Iron deficiency
 Treatment: Required to take two pills of 10 mg of B12 a day for a month
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
   </si>
 </sst>
 </file>
@@ -793,6 +796,72 @@
       <c r="U4" t="s">
         <v>48</v>
       </c>
+      <c r="V4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PatientCare360/Excel/Patients.xlsx
+++ b/PatientCare360/Excel/Patients.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="50">
   <si>
     <t xml:space="preserve">First name</t>
   </si>
@@ -179,6 +179,9 @@
 Diagnoses Iron deficiency
 Treatment: Required to take two pills of 10 mg of B12 a day for a month
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
   </si>
 </sst>
 </file>
@@ -793,6 +796,198 @@
       <c r="U4" t="s">
         <v>48</v>
       </c>
+      <c r="V4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5"/>
+      <c r="V5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6"/>
+      <c r="V6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PatientCare360/Excel/Patients.xlsx
+++ b/PatientCare360/Excel/Patients.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="61">
   <si>
     <t xml:space="preserve">First name</t>
   </si>
@@ -182,6 +182,60 @@
   </si>
   <si>
     <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">316055843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnoses Bleeding
+Treatment: To reach to the nearest hospital as soon as possible
+Diagnoses Disorder of blood formation / blood cells
+Treatment: Required to take two pills of 10 mg of B12 a day for a month  and required to a 5 mg pill of a folic acid a day for a month
+ In addition there are concerns:
+Diagnoses Anemia
+Treatment: Required to take two pills 10 mg each of B12 a day for a month
+Diagnoses Infection
+Treatment: required a specific antibiotics
+Diagnoses Viral disease
+Treatment: home rest
+Diagnoses Iron deficiency
+Treatment: Required to take two pills of 10 mg of B12 a day for a month
+Diagnoses Smokers
+Treatment: please quit smoking
+Diagnoses Lung disease
+Treatment: please stop smoking / Invitation for an X-ray shot of the lungs
+Diagnoses Cancer
+Treatment: Entrectinib
+Diagnoses Malnutrition
+Treatment: Ask for an appointment of a nutritionist
+</t>
   </si>
 </sst>
 </file>
@@ -862,6 +916,202 @@
       <c r="U5" t="s">
         <v>36</v>
       </c>
+      <c r="V5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6"/>
+      <c r="V6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" t="s">
+        <v>60</v>
+      </c>
+      <c r="V7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PatientCare360/Excel/Patients.xlsx
+++ b/PatientCare360/Excel/Patients.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="67">
   <si>
     <t xml:space="preserve">First name</t>
   </si>
@@ -233,6 +233,77 @@
 Treatment: please stop smoking / Invitation for an X-ray shot of the lungs
 Diagnoses Cancer
 Treatment: Entrectinib
+Diagnoses Malnutrition
+Treatment: Ask for an appointment of a nutritionist
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">316055321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnoses Disorder of blood formation / blood cells
+Treatment: Required to take two pills of 10 mg of B12 a day for a month  and required to a 5 mg pill of a folic acid a day for a month
+Diagnoses Viral disease
+Treatment: home rest
+Diagnoses Bile duct diseases
+Treatment: Invitation for a surgical treatment
+Diagnoses Liver disease
+Treatment: Invitation for a specific observation  in order to determine aa treatment
+Diagnoses Smokers
+Treatment: please quit smoking
+Diagnoses Lung disease
+Treatment: please stop smoking / Invitation for an X-ray shot of the lungs
+Diagnoses Overactive thyroid gland
+Treatment: Propylthiouracil for shortening activity of  the Thyroid
+Diagnoses Use of various drugs
+Treatment: Invitation for a family doctor in order to get an approval between the medications
+ In addition there are concerns:
+Diagnoses Anemia
+Treatment: Required to take two pills 10 mg each of B12 a day for a month
+Diagnoses Diet
+Treatment: Ask for an appointment with nutritionist
+Diagnoses Bleeding
+Treatment: To reach to the nearest hospital as soon as possible
+Diagnoses Hyperlipidemia (blood lipids)
+Treatment: schedule an appointment with a nutritionist, 5 mg of Simobil pill per day for a week
+Diagnoses Hematologic disorder
+Treatment: injection of a hormone to encourage red blood cell production
+Diagnoses Iron poisoning
+Treatment: reach to the nearest hospital as soon as possible
+Diagnoses Dehydration
+Treatment: Required to lay down and rest + drink water
+Diagnoses Infection
+Treatment: required a specific antibiotics
+Diagnoses Vitamin deficiency
+Treatment: required an invitation for blood test and vitamin test
+Diagnoses Heart disease
+Treatment: make an appointment with a nutritionist
+Diagnoses Blood disease
+Treatment: a combination of cyclophosphamide and corticosteroids
+Diagnoses Kidney disease
+Treatment: balancing blood sugar levels
+Diagnoses Iron deficiency
+Treatment: Required to take two pills of 10 mg of B12 a day for a month
+Diagnoses Muscle diseases
+Treatment: two 5 mg pills of Altman C3 turmeric a day for a month
+Diagnoses Adult diabetes
+Treatment: Re-adjust insulin levels for the patient
+Diagnoses Cancer
+Treatment: Entrectinib
+Diagnoses Increased consumption of meat
+Treatment: Ask for an appointment of a nutritionist
 Diagnoses Malnutrition
 Treatment: Ask for an appointment of a nutritionist
 </t>
@@ -1112,6 +1183,138 @@
       <c r="U8" t="s">
         <v>36</v>
       </c>
+      <c r="V8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" t="s">
+        <v>34</v>
+      </c>
+      <c r="U9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" t="s">
+        <v>65</v>
+      </c>
+      <c r="U10" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PatientCare360/Excel/Patients.xlsx
+++ b/PatientCare360/Excel/Patients.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr autoCompressPictures="1"/>
   <bookViews>
-    <workbookView xWindow="-25770" yWindow="3405" windowWidth="13830" windowHeight="6990"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
   <si>
     <t xml:space="preserve">First name</t>
   </si>
@@ -132,37 +132,25 @@
     <t xml:space="preserve">The tests are normal and you are a healthy person.</t>
   </si>
   <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">315783522</t>
-  </si>
-  <si>
     <t xml:space="preserve">31</t>
   </si>
   <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
   </si>
   <si>
     <t xml:space="preserve">Diagnoses Bleeding
@@ -181,131 +169,70 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">316055843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnoses Bleeding
-Treatment: To reach to the nearest hospital as soon as possible
-Diagnoses Disorder of blood formation / blood cells
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnoses Malnutrition
+Treatment: Ask for an appointment of a nutritionist
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212122121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnoses Disorder of blood formation / blood cells
 Treatment: Required to take two pills of 10 mg of B12 a day for a month  and required to a 5 mg pill of a folic acid a day for a month
+Diagnoses Vitamin deficiency
+Treatment: required an invitation for blood test and vitamin test
+Diagnoses Smokers
+Treatment: please quit smoking
+Diagnoses Malnutrition
+Treatment: Ask for an appointment of a nutritionist
  In addition there are concerns:
-Diagnoses Anemia
-Treatment: Required to take two pills 10 mg each of B12 a day for a month
+Diagnoses Diet
+Treatment: Ask for an appointment with nutritionist
+Diagnoses Hyperlipidemia (blood lipids)
+Treatment: schedule an appointment with a nutritionist, 5 mg of Simobil pill per day for a week
+Diagnoses Iron poisoning
+Treatment: reach to the nearest hospital as soon as possible
 Diagnoses Infection
 Treatment: required a specific antibiotics
 Diagnoses Viral disease
 Treatment: home rest
-Diagnoses Iron deficiency
-Treatment: Required to take two pills of 10 mg of B12 a day for a month
-Diagnoses Smokers
-Treatment: please quit smoking
+Diagnoses Heart disease
+Treatment: make an appointment with a nutritionist
+Diagnoses Liver disease
+Treatment: Invitation for a specific observation  in order to determine aa treatment
 Diagnoses Lung disease
 Treatment: please stop smoking / Invitation for an X-ray shot of the lungs
-Diagnoses Cancer
-Treatment: Entrectinib
-Diagnoses Malnutrition
-Treatment: Ask for an appointment of a nutritionist
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">316055321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnoses Disorder of blood formation / blood cells
-Treatment: Required to take two pills of 10 mg of B12 a day for a month  and required to a 5 mg pill of a folic acid a day for a month
-Diagnoses Viral disease
-Treatment: home rest
-Diagnoses Bile duct diseases
-Treatment: Invitation for a surgical treatment
-Diagnoses Liver disease
-Treatment: Invitation for a specific observation  in order to determine aa treatment
-Diagnoses Smokers
-Treatment: please quit smoking
-Diagnoses Lung disease
-Treatment: please stop smoking / Invitation for an X-ray shot of the lungs
-Diagnoses Overactive thyroid gland
-Treatment: Propylthiouracil for shortening activity of  the Thyroid
-Diagnoses Use of various drugs
-Treatment: Invitation for a family doctor in order to get an approval between the medications
- In addition there are concerns:
-Diagnoses Anemia
-Treatment: Required to take two pills 10 mg each of B12 a day for a month
-Diagnoses Diet
-Treatment: Ask for an appointment with nutritionist
-Diagnoses Bleeding
-Treatment: To reach to the nearest hospital as soon as possible
-Diagnoses Hyperlipidemia (blood lipids)
-Treatment: schedule an appointment with a nutritionist, 5 mg of Simobil pill per day for a week
-Diagnoses Hematologic disorder
-Treatment: injection of a hormone to encourage red blood cell production
-Diagnoses Iron poisoning
-Treatment: reach to the nearest hospital as soon as possible
-Diagnoses Dehydration
-Treatment: Required to lay down and rest + drink water
-Diagnoses Infection
-Treatment: required a specific antibiotics
-Diagnoses Vitamin deficiency
-Treatment: required an invitation for blood test and vitamin test
-Diagnoses Heart disease
-Treatment: make an appointment with a nutritionist
-Diagnoses Blood disease
-Treatment: a combination of cyclophosphamide and corticosteroids
-Diagnoses Kidney disease
-Treatment: balancing blood sugar levels
-Diagnoses Iron deficiency
-Treatment: Required to take two pills of 10 mg of B12 a day for a month
-Diagnoses Muscle diseases
-Treatment: two 5 mg pills of Altman C3 turmeric a day for a month
 Diagnoses Adult diabetes
 Treatment: Re-adjust insulin levels for the patient
 Diagnoses Cancer
 Treatment: Entrectinib
-Diagnoses Increased consumption of meat
-Treatment: Ask for an appointment of a nutritionist
-Diagnoses Malnutrition
-Treatment: Ask for an appointment of a nutritionist
 </t>
   </si>
 </sst>
@@ -646,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF12" sqref="A3:AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -805,7 +732,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -820,40 +747,40 @@
         <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
         <v>38</v>
       </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="R3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="S3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="V3"/>
     </row>
@@ -865,10 +792,10 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -883,43 +810,43 @@
         <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" t="s">
         <v>40</v>
       </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" t="s">
-        <v>44</v>
-      </c>
       <c r="Q4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="S4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T4" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="U4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V4"/>
     </row>
@@ -931,389 +858,61 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" t="s">
-        <v>28</v>
-      </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="O5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="Q5" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="R5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="S5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="U5" t="s">
-        <v>36</v>
-      </c>
-      <c r="V5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R6" t="s">
         <v>56</v>
-      </c>
-      <c r="S6" t="s">
-        <v>57</v>
-      </c>
-      <c r="T6" t="s">
-        <v>58</v>
-      </c>
-      <c r="U6"/>
-      <c r="V6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>55</v>
-      </c>
-      <c r="R7" t="s">
-        <v>56</v>
-      </c>
-      <c r="S7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T7" t="s">
-        <v>58</v>
-      </c>
-      <c r="U7" t="s">
-        <v>60</v>
-      </c>
-      <c r="V7"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S8" t="s">
-        <v>35</v>
-      </c>
-      <c r="T8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U8" t="s">
-        <v>36</v>
-      </c>
-      <c r="V8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" t="s">
-        <v>28</v>
-      </c>
-      <c r="O9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" t="s">
-        <v>34</v>
-      </c>
-      <c r="S9" t="s">
-        <v>35</v>
-      </c>
-      <c r="T9" t="s">
-        <v>34</v>
-      </c>
-      <c r="U9" t="s">
-        <v>36</v>
-      </c>
-      <c r="V9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" t="s">
-        <v>34</v>
-      </c>
-      <c r="S10" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" t="s">
-        <v>65</v>
-      </c>
-      <c r="U10" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/PatientCare360/Excel/Patients.xlsx
+++ b/PatientCare360/Excel/Patients.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="63">
   <si>
     <t xml:space="preserve">First name</t>
   </si>
@@ -236,6 +236,12 @@
 Diagnoses Malnutrition
 Treatment: Ask for an appointment of a nutritionist
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5783522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
   </si>
 </sst>
 </file>
@@ -1112,6 +1118,328 @@
       <c r="U8" t="s">
         <v>36</v>
       </c>
+      <c r="V8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" t="s">
+        <v>34</v>
+      </c>
+      <c r="U9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10"/>
+      <c r="V10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" t="s">
+        <v>34</v>
+      </c>
+      <c r="U12"/>
+      <c r="V12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PatientCare360/Excel/Patients.xlsx
+++ b/PatientCare360/Excel/Patients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dori6\source\repos\PatientCare360\PatientCare360\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5B3841-33C7-4DB6-9CCA-EC6E9CE39FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE41D8CB-E5DD-440D-A0C4-562487385B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2148" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
